--- a/biology/Mycologie/Ramaria/Ramaria.xlsx
+++ b/biology/Mycologie/Ramaria/Ramaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ramaria est un genre de champignons basidiomycètes de la famille des Gomphaceae qui comportent un peu plus de 230 espèces. Ce sont principalement des espèces clavaroïdes.
 Ramaria Fr. ex Bonord., 1851 est un nom. cons..
-En revanche, Ramaria Holmsk., 1794 est un synonyme hétérotypique de Clavilunopsis selon Index Fungorum[1], ou d’Isaria selon MycoBank[2].
+En revanche, Ramaria Holmsk., 1794 est un synonyme hétérotypique de Clavilunopsis selon Index Fungorum, ou d’Isaria selon MycoBank.
 Le nom vernaculaire Ramaire est un nom français ambigu qui peut s'appliquer à des champignons appartenant à des familles différentes.
 			Ramaria abietina
 			Ramaria aurea
@@ -525,9 +537,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (26 octobre 2013)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (26 octobre 2013) :
 Ramaria abietina
 Ramaria aciculospora
 Ramaria acrisiccescens
@@ -849,7 +863,7 @@
 Ramaria zebrispora
 Ramaria zeppelinospora
 Ramaria zippelii
-Selon NCBI  (26 octobre 2013)[4] :
+Selon NCBI  (26 octobre 2013) :
 Ramaria abietina
 Ramaria acris
 non-classé Ramaria acris UT-36052-T
